--- a/plots/MSEdecomp-statsAlldata_and_bystad.xlsx
+++ b/plots/MSEdecomp-statsAlldata_and_bystad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minunno\Documents\github\forClimate\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minunno\Documents\github\forClimate\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00DD7FE0-4624-43E4-A0E1-68037D2029D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED746E2F-12A6-4D7F-B533-0C91DFA06DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="39">
   <si>
     <t>HarriF</t>
   </si>
@@ -145,18 +145,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>G</t>
@@ -295,6 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,7 +293,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6031,34 +6019,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>34</v>
       </c>
       <c r="L1" t="s">
         <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -6143,15 +6131,15 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <f>C3</f>
+        <f t="shared" ref="H3:J5" si="0">C3</f>
         <v>5.2470160363446503</v>
       </c>
       <c r="I3">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>4.6316985778779003</v>
       </c>
       <c r="J3">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>3.9349502877582201</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -6162,11 +6150,11 @@
         <v>4.4513651620399202</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:N3" si="0">D9</f>
+        <f t="shared" ref="M3:N3" si="1">D9</f>
         <v>2.7830390843261301</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5752922399760698</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -6177,11 +6165,11 @@
         <v>6.4445692760504096</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:R3" si="1">D15</f>
+        <f t="shared" ref="Q3:R3" si="2">D15</f>
         <v>2.74332124980576</v>
       </c>
       <c r="R3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1711619530389896</v>
       </c>
       <c r="S3" s="4" t="s">
@@ -6192,11 +6180,11 @@
         <v>16550.2163024027</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:V3" si="2">D21</f>
+        <f t="shared" ref="U3:V3" si="3">D21</f>
         <v>20527.7935797024</v>
       </c>
       <c r="V3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10668.0406205699</v>
       </c>
       <c r="W3" s="4" t="s">
@@ -6207,11 +6195,11 @@
         <v>1893.5060189226599</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Z5" si="3">D27</f>
+        <f t="shared" ref="Y3:Z5" si="4">D27</f>
         <v>1576.6650789519399</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1358.7392000233499</v>
       </c>
     </row>
@@ -6235,75 +6223,75 @@
         <v>11</v>
       </c>
       <c r="H4">
-        <f>C4</f>
+        <f t="shared" si="0"/>
         <v>3.21895770568955</v>
       </c>
       <c r="I4">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>9.8275901130356598</v>
       </c>
       <c r="J4">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>1.50104211374538</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L5" si="4">C10</f>
+        <f t="shared" ref="L4:L5" si="5">C10</f>
         <v>6.1136380653164703E-3</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M5" si="5">D10</f>
+        <f t="shared" ref="M4:M5" si="6">D10</f>
         <v>2.8091833398773098</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N5" si="6">E10</f>
+        <f t="shared" ref="N4:N5" si="7">E10</f>
         <v>0.35987859720697901</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P5" si="7">C16</f>
+        <f t="shared" ref="P4:P5" si="8">C16</f>
         <v>0.48134455884377902</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q5" si="8">D16</f>
+        <f t="shared" ref="Q4:Q5" si="9">D16</f>
         <v>1.44858352841272</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R5" si="9">E16</f>
+        <f t="shared" ref="R4:R5" si="10">E16</f>
         <v>0.22796260266592699</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T5" si="10">C22</f>
+        <f t="shared" ref="T4:T5" si="11">C22</f>
         <v>1827.12320105099</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U5" si="11">D22</f>
+        <f t="shared" ref="U4:U5" si="12">D22</f>
         <v>317.40800874692297</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V5" si="12">E22</f>
+        <f t="shared" ref="V4:V5" si="13">E22</f>
         <v>4684.7231310078296</v>
       </c>
       <c r="W4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X5" si="13">C28</f>
+        <f t="shared" ref="X4:X5" si="14">C28</f>
         <v>931.08213414811496</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1708.1795906157799</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>672.02510456780999</v>
       </c>
     </row>
@@ -6327,75 +6315,75 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>0.36750719174976798</v>
       </c>
       <c r="I5">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>1.21611372050899</v>
       </c>
       <c r="J5">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>0.49398403966903298</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4021124551503901</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.10746112548255</v>
       </c>
       <c r="N5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.4166501586714801</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.58078700329413202</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.3174378956479198</v>
       </c>
       <c r="R5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1064551673426899</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="T5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3173.3494515027801</v>
       </c>
       <c r="U5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91.173372642641496</v>
       </c>
       <c r="V5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6458.62147808598</v>
       </c>
       <c r="W5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="X5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>63.311326968442103</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1442.38951273568</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76.577171546047097</v>
       </c>
     </row>
@@ -6878,33 +6866,33 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
